--- a/DigitalEducationalInstructor/TeamImpNotes/Ideas_PendingItems.xlsx
+++ b/DigitalEducationalInstructor/TeamImpNotes/Ideas_PendingItems.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hshaik\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hshaik\source\repos\DigitalEducationalInstructor\DigitalEducationalInstructor\TeamImpNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Idea</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>Pending Item Details</t>
+  </si>
+  <si>
+    <t>Webform</t>
+  </si>
+  <si>
+    <t>SchoolRegistration</t>
+  </si>
+  <si>
+    <t>Hanife</t>
+  </si>
+  <si>
+    <t>Design changes, Validation part</t>
   </si>
 </sst>
 </file>
@@ -471,10 +483,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,7 +494,7 @@
     <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -502,6 +514,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
